--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +540,40 @@
         <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J2">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>0.195594316416</v>
+        <v>0.9075343023160001</v>
       </c>
       <c r="R2">
-        <v>1.760348847744</v>
+        <v>8.167808720844</v>
       </c>
       <c r="S2">
-        <v>0.006100919568056633</v>
+        <v>0.01201041258276588</v>
       </c>
       <c r="T2">
-        <v>0.006100919568056632</v>
+        <v>0.01201041258276588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J3">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +620,10 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
         <v>0.860194303992</v>
@@ -635,10 +632,10 @@
         <v>7.741748735928</v>
       </c>
       <c r="S3">
-        <v>0.0268309241174165</v>
+        <v>0.01138390963947469</v>
       </c>
       <c r="T3">
-        <v>0.02683092411741649</v>
+        <v>0.0113839096394747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +664,10 @@
         <v>2.571444</v>
       </c>
       <c r="I4">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J4">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>0.4790111597640001</v>
+        <v>0.041960823192</v>
       </c>
       <c r="R4">
-        <v>4.311100437876001</v>
+        <v>0.377647408728</v>
       </c>
       <c r="S4">
-        <v>0.01494117319700723</v>
+        <v>0.0005553143253784491</v>
       </c>
       <c r="T4">
-        <v>0.01494117319700722</v>
+        <v>0.0005553143253784492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H5">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I5">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J5">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>0.25207951888</v>
+        <v>36.98591349642412</v>
       </c>
       <c r="R5">
-        <v>2.26871566992</v>
+        <v>332.8732214678171</v>
       </c>
       <c r="S5">
-        <v>0.007862789152678511</v>
+        <v>0.4894758024120042</v>
       </c>
       <c r="T5">
-        <v>0.007862789152678511</v>
+        <v>0.4894758024120043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H6">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I6">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J6">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +806,22 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
-        <v>1.10860770531</v>
+        <v>35.056605614106</v>
       </c>
       <c r="R6">
-        <v>9.977469347789999</v>
+        <v>315.509450526954</v>
       </c>
       <c r="S6">
-        <v>0.03457936082477531</v>
+        <v>0.4639431216012743</v>
       </c>
       <c r="T6">
-        <v>0.03457936082477531</v>
+        <v>0.4639431216012744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H7">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I7">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J7">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>0.617343616645</v>
+        <v>1.710083434706</v>
       </c>
       <c r="R7">
-        <v>5.556092549805</v>
+        <v>15.390750912354</v>
       </c>
       <c r="S7">
-        <v>0.01925599792477526</v>
+        <v>0.02263143943910221</v>
       </c>
       <c r="T7">
-        <v>0.01925599792477526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H8">
-        <v>47.82836</v>
-      </c>
-      <c r="I8">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J8">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.228192</v>
-      </c>
-      <c r="N8">
-        <v>0.6845760000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1274396301998951</v>
-      </c>
-      <c r="P8">
-        <v>0.1274396301998951</v>
-      </c>
-      <c r="Q8">
-        <v>3.63801637504</v>
-      </c>
-      <c r="R8">
-        <v>32.74214737536</v>
-      </c>
-      <c r="S8">
-        <v>0.11347592147916</v>
-      </c>
-      <c r="T8">
-        <v>0.11347592147916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H9">
-        <v>47.82836</v>
-      </c>
-      <c r="I9">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J9">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>1.003554</v>
-      </c>
-      <c r="N9">
-        <v>3.010662</v>
-      </c>
-      <c r="O9">
-        <v>0.5604602731280042</v>
-      </c>
-      <c r="P9">
-        <v>0.5604602731280042</v>
-      </c>
-      <c r="Q9">
-        <v>15.99944733048</v>
-      </c>
-      <c r="R9">
-        <v>143.99502597432</v>
-      </c>
-      <c r="S9">
-        <v>0.4990499881858124</v>
-      </c>
-      <c r="T9">
-        <v>0.4990499881858124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H10">
-        <v>47.82836</v>
-      </c>
-      <c r="I10">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J10">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.5588430000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.676529</v>
-      </c>
-      <c r="O10">
-        <v>0.3121000966721006</v>
-      </c>
-      <c r="P10">
-        <v>0.3121000966721006</v>
-      </c>
-      <c r="Q10">
-        <v>8.90951472916</v>
-      </c>
-      <c r="R10">
-        <v>80.18563256244001</v>
-      </c>
-      <c r="S10">
-        <v>0.2779029255503182</v>
-      </c>
-      <c r="T10">
-        <v>0.2779029255503181</v>
+        <v>0.02263143943910222</v>
       </c>
     </row>
   </sheetData>
